--- a/cafe_post_scrapper/sample_data/scrapping_data_desc.xlsx
+++ b/cafe_post_scrapper/sample_data/scrapping_data_desc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonbyeongjin/anaconda3_workspace/git-teanaps-web-scrapper/cafe_post_scrapper/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76520E7-E115-8440-A292-5078A3AA1841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506BF786-89F0-EE43-A037-25FE03539E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{44E156C2-BC69-C345-8050-B7D911FFCB47}"/>
   </bookViews>
   <sheets>
     <sheet name="영화리뷰 수집 샘플" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="495">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,418 +65,25 @@
     <t>POSTING</t>
   </si>
   <si>
-    <t>JISOOO</t>
-  </si>
-  <si>
-    <t>2021.09.27. 19:51</t>
-  </si>
-  <si>
     <t>■디매인 라이프■</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>❤️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>🔥</t>
-    </r>
-  </si>
-  <si>
     <t>COMMENT</t>
   </si>
   <si>
-    <t>Skrrr</t>
-  </si>
-  <si>
-    <t>2021.09.27. 19:52</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>하</t>
-  </si>
-  <si>
-    <t>그것을알고보니섰다</t>
-  </si>
-  <si>
-    <t>화이자 인챈트 성.공.적☆</t>
-  </si>
-  <si>
-    <t>블로그</t>
-  </si>
-  <si>
     <t>2021.09.27. 19:53</t>
   </si>
   <si>
-    <t>백신 머리 넘무 아프던데ㅠ</t>
-  </si>
-  <si>
-    <t>미친개이각</t>
-  </si>
-  <si>
-    <t>ㅗㅜㅑ</t>
-  </si>
-  <si>
-    <t>배추도사메두사</t>
-  </si>
-  <si>
-    <t>메탈헤드</t>
-  </si>
-  <si>
-    <t>누나짱</t>
-  </si>
-  <si>
-    <t>실내사정</t>
-  </si>
-  <si>
-    <t>굿</t>
-  </si>
-  <si>
-    <t>존버하자</t>
-  </si>
-  <si>
-    <t>미 아</t>
-  </si>
-  <si>
-    <t>ㄴㄴㅉ</t>
-  </si>
-  <si>
-    <t>윤해강</t>
-  </si>
-  <si>
-    <t>아도리</t>
-  </si>
-  <si>
-    <t>2021.09.27. 19:54</t>
-  </si>
-  <si>
-    <t>와 디매 원탑 등장</t>
-  </si>
-  <si>
-    <t>므먀</t>
-  </si>
-  <si>
-    <t>하앙 이맛디💖 20분 전 델룩 완내스예여,, 😚</t>
-  </si>
-  <si>
-    <t>댕 댕 이</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
     <t>2021.09.27. 20:05</t>
   </si>
   <si>
-    <t>살빠지신거 같은데요 라면 두그릇 드세여 😓</t>
-  </si>
-  <si>
-    <t>윤종신덕후</t>
-  </si>
-  <si>
-    <t>와씨 미쳐다</t>
-  </si>
-  <si>
-    <t>켄 드 릭 라 마</t>
-  </si>
-  <si>
-    <t>댓글 ㅋㅋㅋㅋㅋㅋㅋ 물소형들 뛰 ㅡㅡㅡㅡ어</t>
-  </si>
-  <si>
-    <t>발기부전</t>
-  </si>
-  <si>
-    <t>왔다..내 사랑</t>
-  </si>
-  <si>
-    <t>키큰여자좋아함</t>
-  </si>
-  <si>
-    <t>요새 안오셔서 기다렸어여누나..</t>
-  </si>
-  <si>
     <t>남 도일</t>
   </si>
   <si>
-    <t>청바지 데12룩은 항상 있네요 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>Dpr lan</t>
-  </si>
-  <si>
-    <t>카톡완료</t>
-  </si>
-  <si>
-    <t>어예에에</t>
-  </si>
-  <si>
-    <t>두두두두두둑</t>
-  </si>
-  <si>
-    <t>젊은사람</t>
-  </si>
-  <si>
-    <t>글시가안보여요..</t>
-  </si>
-  <si>
-    <t>가나다라마가나다라</t>
-  </si>
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>규맙다너에게</t>
-  </si>
-  <si>
-    <t>사람이 문제다.</t>
-  </si>
-  <si>
-    <t>드디어 처음보네요ㅎ</t>
-  </si>
-  <si>
-    <t>차가운포근함</t>
-  </si>
-  <si>
-    <t>노래 밤에 자기 전 들어보도록 하겠습니다! ㅎㅎ</t>
-  </si>
-  <si>
-    <t>김한자</t>
-  </si>
-  <si>
-    <t>쬐고~~~~~!!!!</t>
-  </si>
-  <si>
-    <t>김 유 정</t>
-  </si>
-  <si>
-    <t>누나짱짱</t>
-  </si>
-  <si>
-    <t>우리가보낸가장긴밤</t>
-  </si>
-  <si>
-    <t>왔다 내누나</t>
-  </si>
-  <si>
-    <t>어바웃타임옴므</t>
-  </si>
-  <si>
-    <t>하 세상예쁘심</t>
-  </si>
-  <si>
-    <t>09최희섭</t>
-  </si>
-  <si>
-    <t>블그라떼 빨때옶이 먹는게 더맛나유</t>
-  </si>
-  <si>
-    <t>마 동 석</t>
-  </si>
-  <si>
-    <t>와....지쥬...★</t>
-  </si>
-  <si>
-    <t>너구리쥬</t>
-  </si>
-  <si>
-    <t>와 지수님 사진첨봐여 몸매가 명품 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>무직스</t>
-  </si>
-  <si>
-    <t>하... 인생</t>
-  </si>
-  <si>
-    <t>돞으</t>
-  </si>
-  <si>
-    <t>사진에 마크 없어요</t>
-  </si>
-  <si>
-    <t>심심한나</t>
-  </si>
-  <si>
-    <t>와 씨쓰루</t>
-  </si>
-  <si>
-    <t>nkdw</t>
-  </si>
-  <si>
-    <t>항상 사람이 문제 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>후시DEANN</t>
-  </si>
-  <si>
-    <t>오랜만에 보는데 역시👍👍</t>
-  </si>
-  <si>
-    <t>영양프린스</t>
-  </si>
-  <si>
-    <t>코디까지 완벽</t>
-  </si>
-  <si>
-    <t>브 루 니</t>
-  </si>
-  <si>
-    <t>ㅘ 존녜 횽림</t>
-  </si>
-  <si>
-    <t>케이원</t>
-  </si>
-  <si>
-    <t>와우 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>맥아더많이사랑한죄</t>
-  </si>
-  <si>
-    <t>확실한 건 지수해옹림 인플루언서 이실것 같아요 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>밀라노</t>
-  </si>
-  <si>
-    <t>나죽네 나주거</t>
-  </si>
-  <si>
-    <t>예쁘면ㅡㅡ</t>
-  </si>
-  <si>
-    <t>ㅡㅡb</t>
-  </si>
-  <si>
-    <t>우리둘만아는</t>
-  </si>
-  <si>
-    <t>다리핏 진쯔... 하의 입을맛 나겠다리 조녜!!</t>
-  </si>
-  <si>
-    <t>물 소</t>
-  </si>
-  <si>
-    <t>사는게재미있으시겠다 ㄹㅇ</t>
-  </si>
-  <si>
-    <t>쿨키드20</t>
-  </si>
-  <si>
-    <t>앗 지수님도 가는 김가네 김밥 반갑네요 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>김 츄</t>
-  </si>
-  <si>
-    <t>대조녜!!! 아이돌 비주얼 센터 메인보컬 메인댄서 다하세여 ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>핑크팬</t>
-  </si>
-  <si>
-    <t>짱짱맨</t>
-  </si>
-  <si>
-    <t>STUS2Y</t>
-  </si>
-  <si>
-    <t>인생외힙 있으신가요 추천 부탁드림니다!!!</t>
-  </si>
-  <si>
-    <t>OGGO</t>
-  </si>
-  <si>
-    <t>회원님!! 청바지 진짜 잘 어울리세요,, 비율 미쳤네요,, 하앙</t>
-  </si>
-  <si>
-    <t>난 너를 응원해</t>
-  </si>
-  <si>
-    <t>디매 원탑 디매 원픽 센터 ㄷㄷㄷ</t>
-  </si>
-  <si>
-    <t>치킨시킬까말까</t>
-  </si>
-  <si>
-    <t>트리마제</t>
-  </si>
-  <si>
-    <t>화이자 2차 배꼽룩 ㄷ ㄷ</t>
-  </si>
-  <si>
-    <t>아작네</t>
-  </si>
-  <si>
-    <t>실루엣 미쳫어요ㅠㅠ 부잣집 딸내미룩? ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>토익 100점</t>
-  </si>
-  <si>
-    <t>와 드릴로 맞으셨네</t>
-  </si>
-  <si>
-    <t>타키야 겐지</t>
-  </si>
-  <si>
-    <t>왔다 조녜쨩 🥰🙌🙄🔫</t>
-  </si>
-  <si>
-    <t>집돌이야</t>
-  </si>
-  <si>
-    <t>와 디매지수짱 딘짜</t>
-  </si>
-  <si>
-    <t>그린매니아</t>
-  </si>
-  <si>
-    <t>2021.09.27. 19:55</t>
-  </si>
-  <si>
-    <t>ㅠㅠ</t>
-  </si>
-  <si>
-    <t>우리는꿈을꾸는아재들</t>
-  </si>
-  <si>
-    <t>이름에 지수들어간사람 특 존예</t>
-  </si>
-  <si>
-    <t>개구리형v</t>
-  </si>
-  <si>
     <t>2021.09.27. 19:56</t>
-  </si>
-  <si>
-    <t>당신 거기 넣어줄래요</t>
-  </si>
-  <si>
-    <t>ㄹㅇ대존예</t>
   </si>
   <si>
     <t>박스주운</t>
@@ -1515,6 +1144,435 @@
   <si>
     <t>본문/댓글</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백구윈터</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:56</t>
+  </si>
+  <si>
+    <t>문제의 와이드 청바지 반품 신청했습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">많은 분들의 피드백 반영하여 결국엔 반품 선택했습니다 와이드팬츠 소화하기 어렵네여 </t>
+  </si>
+  <si>
+    <t>당근죠스</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:15</t>
+  </si>
+  <si>
+    <t>아무리 봐도 전 이쁘던데,, 아쉽네여</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:40</t>
+  </si>
+  <si>
+    <t>호불호가 심하면 그냥 보내주는 게 나은거 같습니다...</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:26</t>
+  </si>
+  <si>
+    <t>문제의 청바지 입고 다시 코디해봤습니다</t>
+  </si>
+  <si>
+    <t>이렇게 코디해도 별론가요?  그럼 고민 없이 반품하겠습니다 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>로건 리</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:27</t>
+  </si>
+  <si>
+    <t>바지 보내주세요 그냥</t>
+  </si>
+  <si>
+    <t>허헉</t>
+  </si>
+  <si>
+    <t>걷기대장</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:28</t>
+  </si>
+  <si>
+    <t>젊은 느낌으로 와이드 사신것 같은데 ㅠ 그냥 보내주세요 ㅠ</t>
+  </si>
+  <si>
+    <t>반품 신청 들어갑니다</t>
+  </si>
+  <si>
+    <t>187kg</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:29</t>
+  </si>
+  <si>
+    <t>신발 컨버스처럼 낮은거 신고 덮으면 이쁠거같은대요?? 전글보고왔는데 안이상한데..</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:30</t>
+  </si>
+  <si>
+    <t>허어 고민되네요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>컨버스 신고 다시 찍어볼게요 잠시만여</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:32</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:33</t>
+  </si>
+  <si>
+    <t>아 근데 길이도 좀 긴거같긴하네요 ㅠㅠ 밑단 넓이도 그렇게 안넓어서 덮히지도 않는거같구 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:34</t>
+  </si>
+  <si>
+    <t>기장 좀만 짧았으면 이뻤을거같아요</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:35</t>
+  </si>
+  <si>
+    <t>고냥 반품합니다 ㅎㅎ 감사합니다</t>
+  </si>
+  <si>
+    <t>안녕하세요0</t>
+  </si>
+  <si>
+    <t>저 바지 좋아하시는 것 같은데 상의 아예 더 큰거 없나요? 그거 입어보시죠 ㄱㄱ</t>
+  </si>
+  <si>
+    <t>없습니당 원래 와이드 바지 안 입는데 예뻐 보여서 첨으루 산거예용</t>
+  </si>
+  <si>
+    <t>응구라야</t>
+  </si>
+  <si>
+    <t>반품요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>네 구라 성림 걍 반품해야겠읍니다..</t>
+  </si>
+  <si>
+    <t>유유</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:31</t>
+  </si>
+  <si>
+    <t>신발이 문제입니다 컨버스로 가세요</t>
+  </si>
+  <si>
+    <t>훨씬 낫네요. 혹 이너티 흰색레이어드 할 수 있으면 해보시는 것도 추천드립니다. 아미 맨투맨 밑단 밖으로 한 단정도 빠져나오게요. 그리고 볼캡 쓰시면 훨씬 조화로워질 거예요.</t>
+  </si>
+  <si>
+    <t>바지 근데 반품해야 될거 같은데요 ㅜㅜ 돌을 너무 맞아서</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:39</t>
+  </si>
+  <si>
+    <t>농담 아니고 진짜 괜찮은데요? 크롭기장이 요샌 더 촌스러운건데 기장 얘기가 많네요</t>
+  </si>
+  <si>
+    <t>기장이 살짝 긴가봐여</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:41</t>
+  </si>
+  <si>
+    <t>으음 아무튼 저는 괜찮아 보이는데 입고 안 입고은 백구님의 선택이시니ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:43</t>
+  </si>
+  <si>
+    <t>반응이 이렇게 엇갈리면 반품 쪽이 더 낫져 반품 신청했습니다 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>빱바밤</t>
+  </si>
+  <si>
+    <t>전 괜찮은디,,,ㅜ</t>
+  </si>
+  <si>
+    <t>별로라는 분이 더 많으셔서 반품해야 할거 같아요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>DMKB</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:36</t>
+  </si>
+  <si>
+    <t>바지 무신사 가보니까 후기 2만개 넘고 평 다좋은 바지인데</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:38</t>
+  </si>
+  <si>
+    <t>맞아여 ㅠㅠ ㅂㄹㄷㄷ 1899 모델이에여</t>
+  </si>
+  <si>
+    <t>관상가 양반님</t>
+  </si>
+  <si>
+    <t>바지 밑단만 자르고 신발 컨버스 신으면 ㄱㅊ을 거같아영</t>
+  </si>
+  <si>
+    <t>반박시니말이맞음</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:37</t>
+  </si>
+  <si>
+    <t>형 아무리 와이드라도 이건 아니야</t>
+  </si>
+  <si>
+    <t>반품 들어갑니다</t>
+  </si>
+  <si>
+    <t>X and Y</t>
+  </si>
+  <si>
+    <t>포스 싫어하는 사람들의 이유가 명확히 보이는군요.</t>
+  </si>
+  <si>
+    <t>강알리덩킨더나쓰</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:54</t>
+  </si>
+  <si>
+    <t>저만 괜찮아보이나요..?? 포스 컨버스 다 이쁜더같은뎅</t>
+  </si>
+  <si>
+    <t>2021.10.02. 19:55</t>
+  </si>
+  <si>
+    <t>반품 신청했습니다 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>돌돌블</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:01</t>
+  </si>
+  <si>
+    <t>좋은데.. 품명 알 수 있을까요?</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:05</t>
+  </si>
+  <si>
+    <t>ㅂㄹㄷㄷ 1899입니다</t>
+  </si>
+  <si>
+    <t>달매</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:13</t>
+  </si>
+  <si>
+    <t>괜춘한데용</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:39</t>
+  </si>
+  <si>
+    <t>그냥 보냈어용...</t>
+  </si>
+  <si>
+    <t>아리하라 미유키</t>
+  </si>
+  <si>
+    <t>2021.10.02. 20:23</t>
+  </si>
+  <si>
+    <t>아니 그냥 보내세요 90년대 힙합바지같아요</t>
+  </si>
+  <si>
+    <t>보냈읍니다...</t>
+  </si>
+  <si>
+    <t>키타1</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:05</t>
+  </si>
+  <si>
+    <t>상의 문제같은데...</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:41</t>
+  </si>
+  <si>
+    <t>바지 문제는 아니구요? 바지 사이즈는 괜찮아 보이나요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:55</t>
+  </si>
+  <si>
+    <t>바지는 원래 와이드핏 저렇게 나오는거에요 상의 밑단 시보리도 안접고 저러면 다 이상할걸요</t>
+  </si>
+  <si>
+    <t>Joon2007</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:46</t>
+  </si>
+  <si>
+    <t>디매 스타일은 아니지만 전 괜찮아 보이네요. 와이드 청바지 자주 입는데 저 정도면 안 이상한데요??저거보다 훨씬 와이드 한 것도 많은데...</t>
+  </si>
+  <si>
+    <t>트리플K</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:51</t>
+  </si>
+  <si>
+    <t>애초에 아미 빅로고랑 저 바지랑 안어울림,,차라리 슬랙스랑 입으셔야죠</t>
+  </si>
+  <si>
+    <t>차선변경할땐깜빡이</t>
+  </si>
+  <si>
+    <t>2021.10.02. 22:56</t>
+  </si>
+  <si>
+    <t>지금 예쁜데요?</t>
+  </si>
+  <si>
+    <t>BOA</t>
+  </si>
+  <si>
+    <t>2021.10.02. 18:07</t>
+  </si>
+  <si>
+    <t>이 청바지에 신발 뭐가 괜찮을까요??</t>
+  </si>
+  <si>
+    <t>어떤 종류의 신발이 좋을까요..? 도움 부탁드립니다</t>
+  </si>
+  <si>
+    <t>별이뜨는밤술</t>
+  </si>
+  <si>
+    <t>2021.10.02. 18:08</t>
+  </si>
+  <si>
+    <t>속이 비쳐보이는 나시~ 아저씨 전용 + 밀짚모자</t>
+  </si>
+  <si>
+    <t>164cm</t>
+  </si>
+  <si>
+    <t>2021.10.02. 18:10</t>
+  </si>
+  <si>
+    <t>쪼리같은 가벼운 신발?</t>
+  </si>
+  <si>
+    <t>Flonvero</t>
+  </si>
+  <si>
+    <t>2021.10.02. 18:24</t>
+  </si>
+  <si>
+    <t>마틴이죠</t>
+  </si>
+  <si>
+    <t>스치면슨다</t>
+  </si>
+  <si>
+    <t>2021.10.02. 12:35</t>
+  </si>
+  <si>
+    <t>청바지입고 헬스장에서 운동하는 분 계심요</t>
+  </si>
+  <si>
+    <t>왜 그럴까요  기본적인tpo는 맞쳐야 하는거 아닌가 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>좋좋소</t>
+  </si>
+  <si>
+    <t>2021.10.02. 12:38</t>
+  </si>
+  <si>
+    <t>신사 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>단 비</t>
+  </si>
+  <si>
+    <t>2021.10.02. 12:41</t>
+  </si>
+  <si>
+    <t>대단..</t>
+  </si>
+  <si>
+    <t>jeongpro</t>
+  </si>
+  <si>
+    <t>2021.10.02. 12:50</t>
+  </si>
+  <si>
+    <t>패셔니스타</t>
+  </si>
+  <si>
+    <t>초코는</t>
+  </si>
+  <si>
+    <t>2021.10.02. 13:43</t>
+  </si>
+  <si>
+    <t>Ddll</t>
+  </si>
+  <si>
+    <t>2021.10.02. 09:10</t>
+  </si>
+  <si>
+    <t>흰티 청바지에 이 벨트 ㄱㄴ입니까?</t>
+  </si>
+  <si>
+    <t>바지는 테이퍼드 입니다</t>
+  </si>
+  <si>
+    <t>아 스 날</t>
+  </si>
+  <si>
+    <t>2021.10.02. 09:11</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>이에스티제이</t>
+  </si>
+  <si>
+    <t>2021.10.02. 09:12</t>
+  </si>
+  <si>
+    <t>개인적으로 너무 싫은데요ㅠ</t>
+  </si>
+  <si>
+    <t>한맹자</t>
+  </si>
+  <si>
+    <t>2021.10.02. 09:15</t>
+  </si>
+  <si>
+    <t>전 싫어효,,</t>
   </si>
 </sst>
 </file>
@@ -1932,28 +1990,28 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
     <col min="6" max="6" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57">
       <c r="A1" s="4" t="s">
-        <v>470</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>472</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>473</v>
+        <v>350</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>474</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1961,2005 +2019,1998 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>354</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>356</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>378</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>352</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>378</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>391</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1305</v>
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>409</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>413</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>414</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>409</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>414</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>429</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>438</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>441</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>446</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>452</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>456</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>105</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>29</v>
+        <v>462</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>109</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>111</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>472</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>114</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>29</v>
+        <v>475</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>116</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>29</v>
+        <v>478</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>481</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="e" cm="1">
+        <f t="array" ref="F59">+백팩 매고 러닝머신 하시는분 도 봤어요...</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>29</v>
+        <v>483</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>122</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>487</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>127</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>129</v>
+        <v>493</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3967,239 +4018,239 @@
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4207,99 +4258,99 @@
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4307,179 +4358,179 @@
         <v>1</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4487,99 +4538,99 @@
         <v>1</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4587,691 +4638,691 @@
         <v>1</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>364</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5279,705 +5330,705 @@
         <v>1</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>374</v>
+        <v>251</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>377</v>
+        <v>254</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>386</v>
+        <v>263</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>398</v>
+        <v>275</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>400</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>401</v>
+        <v>278</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>404</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>405</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>408</v>
+        <v>285</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>409</v>
+        <v>286</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>409</v>
+        <v>286</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>410</v>
+        <v>287</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>412</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>413</v>
+        <v>290</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>414</v>
+        <v>291</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>416</v>
+        <v>293</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>418</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>419</v>
+        <v>296</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>420</v>
+        <v>297</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>421</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>424</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C204" s="2" t="s">
-        <v>425</v>
+        <v>302</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>426</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5985,219 +6036,219 @@
         <v>1</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>430</v>
+        <v>307</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>431</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>433</v>
+        <v>310</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>434</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>437</v>
+        <v>314</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>437</v>
+        <v>314</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>439</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>440</v>
+        <v>317</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>433</v>
+        <v>310</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>441</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>440</v>
+        <v>317</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>445</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6208,176 +6259,176 @@
         <v>271717177277</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>451</v>
+        <v>328</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>454</v>
+        <v>331</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>457</v>
+        <v>334</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B218" s="2">
         <v>271717177277</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>461</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>464</v>
+        <v>341</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>465</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B222" s="2">
         <v>271717177277</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>466</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>467</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>468</v>
+        <v>345</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>469</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
